--- a/Docs/Rail Node Calculator.xlsx
+++ b/Docs/Rail Node Calculator.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2d030e980fc414b5/Documents/BeamNG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="780" documentId="11_AD4D066CA252ABDACC1048134915C49072EEDF52" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{20449054-2BF1-458A-B806-724271EDCCC6}"/>
+  <xr:revisionPtr revIDLastSave="870" documentId="11_AD4D066CA252ABDACC1048134915C49072EEDF52" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F4BFB00D-ECE1-4C8C-B4B8-DF1B60D25FAA}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -262,6 +263,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -530,7 +535,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -557,13 +562,13 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>0.55000000000000004</v>
+        <v>0.27200000000000002</v>
       </c>
       <c r="C2">
-        <v>1.337</v>
+        <v>-0.98499999999999999</v>
       </c>
       <c r="D2">
-        <v>0.79700000000000004</v>
+        <v>0.105</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -571,13 +576,13 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>0.60370000000000001</v>
+        <v>0.752</v>
       </c>
       <c r="C3">
-        <v>1.355</v>
+        <v>-1.2949999999999999</v>
       </c>
       <c r="D3">
-        <v>1.55E-2</v>
+        <v>2.1000000000000001E-2</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -591,7 +596,7 @@
       </c>
       <c r="E4" s="1">
         <f>SQRT((B3-B2)^2+(C3-C2)^2+(D3-D2)^2)</f>
-        <v>0.78354957724447793</v>
+        <v>0.57754307198684318</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -599,15 +604,15 @@
         <v>5</v>
       </c>
       <c r="B5" s="5">
-        <v>0.46800000000000003</v>
+        <v>0.46500000000000002</v>
       </c>
       <c r="C5" s="2">
         <f>((B5-B3)/(B3-B2))*(C3-C2)+C3</f>
-        <v>1.3095139664804469</v>
+        <v>-1.1096458333333332</v>
       </c>
       <c r="D5" s="2">
         <f>((B5-B3)/(B3-B2))*(D3-D2)+D3</f>
-        <v>1.9903519553072639</v>
+        <v>7.1224999999999997E-2</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -616,14 +621,14 @@
       </c>
       <c r="B6" s="2">
         <f>((C6-C3)/(C3-C2))*(B3-B2)+B3</f>
-        <v>-3.4387166666666609</v>
+        <v>-1.2531612903225808</v>
       </c>
       <c r="C6" s="3">
         <v>0</v>
       </c>
       <c r="D6" s="2">
         <f>((C6-C3)/(C3-C2))*(D3-D2)+D3</f>
-        <v>58.845083333333292</v>
+        <v>0.37190322580645163</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -632,14 +637,14 @@
       </c>
       <c r="B7" s="2">
         <f>((D7-D3)/(D3-D2))*(B3-B2)+B3</f>
-        <v>0.59239654510556627</v>
+        <v>-2.0708571428571432</v>
       </c>
       <c r="C7" s="2">
         <f>((D7-D3)/(D3-D2))*(C3-C2)+C3</f>
-        <v>1.3512111324376199</v>
+        <v>0.52809523809523795</v>
       </c>
       <c r="D7" s="4">
-        <v>0.18</v>
+        <v>0.51500000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -667,7 +672,7 @@
         <v>1.373</v>
       </c>
       <c r="D10">
-        <v>0.128</v>
+        <v>0.108</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -675,13 +680,13 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>0.60370000000000001</v>
+        <v>0.57640000000000002</v>
       </c>
       <c r="C11">
         <v>1.355</v>
       </c>
       <c r="D11">
-        <v>1.55E-2</v>
+        <v>1.41E-2</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -703,10 +708,10 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.58899999999999997</v>
+        <v>0.56769999999999998</v>
       </c>
       <c r="C13">
-        <v>1.321</v>
+        <v>1.351</v>
       </c>
       <c r="D13">
         <v>0.17</v>
@@ -734,7 +739,7 @@
         <v>11</v>
       </c>
       <c r="B16">
-        <v>0.56100000000000005</v>
+        <v>0.58099999999999996</v>
       </c>
       <c r="C16">
         <v>-1.22</v>
@@ -754,7 +759,7 @@
         <v>-0.98499999999999999</v>
       </c>
       <c r="D17">
-        <v>0.12</v>
+        <v>0.105</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -776,13 +781,13 @@
         <v>12</v>
       </c>
       <c r="B19">
-        <v>0.747</v>
+        <v>0.752</v>
       </c>
       <c r="C19">
         <v>-1.3</v>
       </c>
       <c r="D19">
-        <v>-6.6000000000000003E-2</v>
+        <v>-6.8000000000000005E-2</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="13.5" customHeight="1">
@@ -804,7 +809,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>0.747</v>
+        <v>0.752</v>
       </c>
       <c r="C21">
         <v>-1.2949999999999999</v>

--- a/Docs/Rail Node Calculator.xlsx
+++ b/Docs/Rail Node Calculator.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2d030e980fc414b5/Documents/BeamNG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="870" documentId="11_AD4D066CA252ABDACC1048134915C49072EEDF52" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F4BFB00D-ECE1-4C8C-B4B8-DF1B60D25FAA}"/>
+  <xr:revisionPtr revIDLastSave="873" documentId="11_AD4D066CA252ABDACC1048134915C49072EEDF52" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C8C7435A-E21D-49EC-9495-88BF68DF8887}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -263,10 +262,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -535,7 +530,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="F16" sqref="F16:F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -562,13 +557,13 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>0.27200000000000002</v>
+        <v>0.58099999999999996</v>
       </c>
       <c r="C2">
-        <v>-0.98499999999999999</v>
+        <v>-1.22</v>
       </c>
       <c r="D2">
-        <v>0.105</v>
+        <v>0.81499999999999995</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -576,13 +571,13 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>0.752</v>
+        <v>0.61099999999999999</v>
       </c>
       <c r="C3">
-        <v>-1.2949999999999999</v>
+        <v>-1.333</v>
       </c>
       <c r="D3">
-        <v>2.1000000000000001E-2</v>
+        <v>0.20300000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -596,7 +591,7 @@
       </c>
       <c r="E4" s="1">
         <f>SQRT((B3-B2)^2+(C3-C2)^2+(D3-D2)^2)</f>
-        <v>0.57754307198684318</v>
+        <v>0.62306741208315486</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -608,11 +603,11 @@
       </c>
       <c r="C5" s="2">
         <f>((B5-B3)/(B3-B2))*(C3-C2)+C3</f>
-        <v>-1.1096458333333332</v>
+        <v>-0.78306666666666735</v>
       </c>
       <c r="D5" s="2">
         <f>((B5-B3)/(B3-B2))*(D3-D2)+D3</f>
-        <v>7.1224999999999997E-2</v>
+        <v>3.1813999999999956</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -621,14 +616,14 @@
       </c>
       <c r="B6" s="2">
         <f>((C6-C3)/(C3-C2))*(B3-B2)+B3</f>
-        <v>-1.2531612903225808</v>
+        <v>0.25710619469026519</v>
       </c>
       <c r="C6" s="3">
         <v>0</v>
       </c>
       <c r="D6" s="2">
         <f>((C6-C3)/(C3-C2))*(D3-D2)+D3</f>
-        <v>0.37190322580645163</v>
+        <v>7.4224336283185828</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -637,14 +632,14 @@
       </c>
       <c r="B7" s="2">
         <f>((D7-D3)/(D3-D2))*(B3-B2)+B3</f>
-        <v>-2.0708571428571432</v>
+        <v>0.60085294117647059</v>
       </c>
       <c r="C7" s="2">
         <f>((D7-D3)/(D3-D2))*(C3-C2)+C3</f>
-        <v>0.52809523809523795</v>
+        <v>-1.2947794117647058</v>
       </c>
       <c r="D7" s="4">
-        <v>0.51500000000000001</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="9" spans="1:5">
